--- a/mAuditoriaPV/formatos/cod arb.xlsx
+++ b/mAuditoriaPV/formatos/cod arb.xlsx
@@ -1,136 +1,210 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\JOrozco\VISITA A TIENDAS\VISITA ARBOLEDAS\12-03-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gil Orosco\Desktop\FALT ACUM 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D902256-EA15-45C4-8931-978AFAB539AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C88BBB98-CB41-4E45-86AA-1A74BD834A41}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>7501000984770</t>
-  </si>
-  <si>
-    <t>7501059297289</t>
-  </si>
-  <si>
-    <t>75045838</t>
-  </si>
-  <si>
-    <t>7501071900969</t>
-  </si>
-  <si>
-    <t>7501071901355</t>
-  </si>
-  <si>
-    <t>7501058752079</t>
-  </si>
-  <si>
-    <t>7501058752086</t>
-  </si>
-  <si>
-    <t>7501058716149</t>
-  </si>
-  <si>
-    <t>7501058754363</t>
-  </si>
-  <si>
-    <t>7500435127493</t>
-  </si>
-  <si>
-    <t>7500435142465</t>
-  </si>
-  <si>
-    <t>7500435127523</t>
-  </si>
-  <si>
-    <t>7500435127516</t>
-  </si>
-  <si>
-    <t>7501042306547</t>
-  </si>
-  <si>
-    <t>7506425605316</t>
-  </si>
-  <si>
-    <t>034587090017</t>
-  </si>
-  <si>
-    <t>722776020029</t>
-  </si>
-  <si>
-    <t>7501058616630</t>
-  </si>
-  <si>
-    <t>7501289610032</t>
-  </si>
-  <si>
-    <t>7501038330181</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>7501052417608</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>7501003124555</t>
+  </si>
+  <si>
+    <t>7500459000406</t>
+  </si>
+  <si>
+    <t>7501943473522</t>
+  </si>
+  <si>
+    <t>0592</t>
+  </si>
+  <si>
+    <t>7501041419088</t>
+  </si>
+  <si>
+    <t>7500478019083</t>
+  </si>
+  <si>
+    <t>7501000620630</t>
+  </si>
+  <si>
+    <t>7501040092916</t>
+  </si>
+  <si>
+    <t>7501761810394</t>
+  </si>
+  <si>
+    <t>7501005190794</t>
+  </si>
+  <si>
+    <t>7622210563071</t>
+  </si>
+  <si>
+    <t>7500435143622</t>
+  </si>
+  <si>
+    <t>7501030418412</t>
+  </si>
+  <si>
+    <t>0450</t>
+  </si>
+  <si>
+    <t>7501035910041</t>
+  </si>
+  <si>
+    <t>7501303919660</t>
+  </si>
+  <si>
+    <t>7501058752772</t>
+  </si>
+  <si>
+    <t>7501013103342</t>
+  </si>
+  <si>
+    <t>014563000230</t>
+  </si>
+  <si>
+    <t>7501026001116</t>
+  </si>
+  <si>
+    <t>7500478000401</t>
+  </si>
+  <si>
+    <t>7500435159036</t>
+  </si>
+  <si>
+    <t>7501642301355</t>
+  </si>
+  <si>
+    <t>7501040093227</t>
+  </si>
+  <si>
+    <t>7501035910096</t>
+  </si>
+  <si>
+    <t>7501026005329</t>
+  </si>
+  <si>
+    <t>7501042306394</t>
+  </si>
+  <si>
+    <t>038527132577</t>
+  </si>
+  <si>
+    <t>7501303904055</t>
+  </si>
+  <si>
+    <t>7501209708054</t>
+  </si>
+  <si>
+    <t>7501199406671</t>
+  </si>
+  <si>
+    <t>7509546067704</t>
+  </si>
+  <si>
+    <t>7509546045689</t>
+  </si>
+  <si>
+    <t>7501000616510</t>
+  </si>
+  <si>
+    <t>7501040092862</t>
+  </si>
+  <si>
+    <t>7501040092855</t>
+  </si>
+  <si>
+    <t>7501026001161</t>
+  </si>
+  <si>
+    <t>735257006382</t>
+  </si>
+  <si>
+    <t>7501026001819</t>
+  </si>
+  <si>
+    <t>7501020527278</t>
+  </si>
+  <si>
+    <t>041789001918</t>
+  </si>
+  <si>
+    <t>7622210267863</t>
+  </si>
+  <si>
+    <t>7506306215559</t>
+  </si>
+  <si>
+    <t>7501041419361</t>
+  </si>
+  <si>
+    <t>7503031287028</t>
+  </si>
+  <si>
+    <t>7501006563535</t>
+  </si>
+  <si>
+    <t>735257006351</t>
+  </si>
+  <si>
+    <t>7501017660629</t>
+  </si>
+  <si>
+    <t>7501058715364</t>
+  </si>
+  <si>
+    <t>7501007455730</t>
+  </si>
+  <si>
+    <t>7501059235038</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -149,51 +223,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Millares 2" xfId="7"/>
-    <cellStyle name="Moneda 2" xfId="5"/>
-    <cellStyle name="Moneda 3" xfId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Porcentaje 2" xfId="8"/>
-    <cellStyle name="Porcentaje 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -225,7 +264,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -237,7 +276,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -254,9 +293,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -284,14 +323,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -319,6 +375,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402ABC74-E6A6-4CA6-BAC6-57D1A7407086}">
+  <dimension ref="A1:A148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="A53" sqref="A53:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,126 +556,552 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
